--- a/data/trans_orig/P78DS1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27AD83C7-FABD-41CB-A484-071F78A046FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A767DC3-89B2-4BCF-AB85-08F0D84023A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F868CE2B-B2F3-4BDC-9746-CFECAF2166F9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D1E1AF9-A0BF-46DC-9369-E1E8352A85AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="354">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 1 en 2023 (Tasa respuesta: 94,89%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>88,56%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>Otros</t>
@@ -107,1015 +107,994 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,09%</t>
+    <t>5,91%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,04%</t>
+    <t>2,14%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>Actividades extraescolares</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Tasa de autónomos</t>
+  </si>
+  <si>
+    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>Cuotas de seguros</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>Hipoteca</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Actividades extraescolares</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>Tasa de autónomos</t>
-  </si>
-  <si>
-    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>Cuotas de seguros</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Hipoteca</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>0,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1530,7 +1509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06019B94-5705-4E50-8ECE-63E09E7F79F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB03F50-B8AB-4015-B716-A4D012B3B9EC}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2191,7 +2170,7 @@
         <v>345</v>
       </c>
       <c r="N14" s="7">
-        <v>663026</v>
+        <v>663027</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>79</v>
@@ -2286,10 +2265,10 @@
         <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2298,13 +2277,13 @@
         <v>23602</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,7 +2304,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2340,7 +2319,7 @@
         <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2355,7 +2334,7 @@
         <v>30</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2349,13 @@
         <v>1372</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2385,13 +2364,13 @@
         <v>1156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -2406,7 +2385,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2400,13 @@
         <v>20525</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -2436,13 +2415,13 @@
         <v>30958</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -2451,7 +2430,7 @@
         <v>51483</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>112</v>
@@ -2478,7 +2457,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2493,7 +2472,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2505,10 +2484,10 @@
         <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,7 +2508,7 @@
         <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2538,13 +2517,13 @@
         <v>3037</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2553,13 +2532,13 @@
         <v>3037</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2559,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2589,7 +2568,7 @@
         <v>975</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
@@ -2610,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2604,13 @@
         <v>8740</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -2640,13 +2619,13 @@
         <v>12896</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -2655,13 +2634,13 @@
         <v>21636</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2655,13 @@
         <v>6291</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2691,13 +2670,13 @@
         <v>4687</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2706,13 +2685,13 @@
         <v>10978</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,7 +2747,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -2780,13 +2759,13 @@
         <v>458640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>722</v>
@@ -2795,13 +2774,13 @@
         <v>517880</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>1171</v>
@@ -2810,13 +2789,13 @@
         <v>976519</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2810,13 @@
         <v>16694</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -2846,13 +2825,13 @@
         <v>11305</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -2861,13 +2840,13 @@
         <v>27999</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,7 +2867,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2918,7 +2897,7 @@
         <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2912,13 @@
         <v>3530</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2948,13 +2927,13 @@
         <v>1566</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2963,13 +2942,13 @@
         <v>5096</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2963,13 @@
         <v>20466</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -2999,13 +2978,13 @@
         <v>24856</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
@@ -3014,13 +2993,13 @@
         <v>45322</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +3014,13 @@
         <v>2122</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -3050,13 +3029,13 @@
         <v>5208</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -3065,13 +3044,13 @@
         <v>7330</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,7 +3071,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -3101,13 +3080,13 @@
         <v>2616</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3119,10 +3098,10 @@
         <v>76</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3116,13 @@
         <v>1456</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3152,13 +3131,13 @@
         <v>840</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -3167,13 +3146,13 @@
         <v>2296</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3167,13 @@
         <v>19664</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -3203,13 +3182,13 @@
         <v>8349</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M34" s="7">
         <v>33</v>
@@ -3218,13 +3197,13 @@
         <v>28013</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3218,13 @@
         <v>8549</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3254,13 +3233,13 @@
         <v>8611</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -3269,13 +3248,13 @@
         <v>17160</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3310,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
@@ -3343,13 +3322,13 @@
         <v>613568</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>973</v>
@@ -3358,13 +3337,13 @@
         <v>633834</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7">
         <v>1535</v>
@@ -3373,13 +3352,13 @@
         <v>1247403</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3373,13 @@
         <v>15842</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H38" s="7">
         <v>21</v>
@@ -3409,13 +3388,13 @@
         <v>14078</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="M38" s="7">
         <v>33</v>
@@ -3424,13 +3403,13 @@
         <v>29920</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,7 +3445,7 @@
         <v>22</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -3475,13 +3454,13 @@
         <v>785</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3490,13 @@
         <v>3798</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -3526,13 +3505,13 @@
         <v>3798</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3526,13 @@
         <v>38078</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H41" s="7">
         <v>52</v>
@@ -3565,10 +3544,10 @@
         <v>36</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M41" s="7">
         <v>87</v>
@@ -3577,13 +3556,13 @@
         <v>77444</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3577,13 @@
         <v>7330</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H42" s="7">
         <v>8</v>
@@ -3613,13 +3592,13 @@
         <v>5414</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="L42" s="7" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="M42" s="7">
         <v>14</v>
@@ -3628,13 +3607,13 @@
         <v>12744</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3628,13 @@
         <v>2263</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
@@ -3667,10 +3646,10 @@
         <v>55</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M43" s="7">
         <v>5</v>
@@ -3679,13 +3658,13 @@
         <v>4400</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3694,13 @@
         <v>3018</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -3730,13 +3709,13 @@
         <v>3018</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3730,13 @@
         <v>10181</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -3766,13 +3745,13 @@
         <v>6148</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M45" s="7">
         <v>20</v>
@@ -3781,13 +3760,13 @@
         <v>16328</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,10 +3784,10 @@
         <v>244</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H46" s="7">
         <v>8</v>
@@ -3823,7 +3802,7 @@
         <v>24</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M46" s="7">
         <v>16</v>
@@ -3832,10 +3811,10 @@
         <v>15412</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>249</v>
@@ -3957,13 +3936,13 @@
         <v>13068</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H49" s="7">
         <v>20</v>
@@ -3972,13 +3951,13 @@
         <v>13095</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M49" s="7">
         <v>33</v>
@@ -3987,13 +3966,13 @@
         <v>26163</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,7 +3993,7 @@
         <v>30</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4029,7 +4008,7 @@
         <v>30</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4044,7 +4023,7 @@
         <v>30</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,7 +4038,7 @@
         <v>2269</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>22</v>
@@ -4089,13 +4068,13 @@
         <v>3614</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4089,13 @@
         <v>38630</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H52" s="7">
         <v>70</v>
@@ -4125,13 +4104,13 @@
         <v>47018</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M52" s="7">
         <v>111</v>
@@ -4140,13 +4119,13 @@
         <v>85648</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,10 +4140,10 @@
         <v>7501</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>280</v>
@@ -4182,7 +4161,7 @@
         <v>282</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>283</v>
+        <v>138</v>
       </c>
       <c r="M53" s="7">
         <v>12</v>
@@ -4191,7 +4170,7 @@
         <v>10307</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>284</v>
@@ -4218,7 +4197,7 @@
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -4227,13 +4206,13 @@
         <v>683</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -4242,13 +4221,13 @@
         <v>2017</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,7 +4248,7 @@
         <v>30</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -4284,7 +4263,7 @@
         <v>22</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
@@ -4293,13 +4272,13 @@
         <v>1347</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4293,13 @@
         <v>1518</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>289</v>
+        <v>114</v>
       </c>
       <c r="H56" s="7">
         <v>6</v>
@@ -4329,13 +4308,13 @@
         <v>3240</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="M56" s="7">
         <v>10</v>
@@ -4344,13 +4323,13 @@
         <v>4758</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4344,13 @@
         <v>4525</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="H57" s="7">
         <v>7</v>
@@ -4380,13 +4359,13 @@
         <v>4268</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M57" s="7">
         <v>11</v>
@@ -4398,10 +4377,10 @@
         <v>46</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4392,7 @@
         <v>622</v>
       </c>
       <c r="D58" s="7">
-        <v>563248</v>
+        <v>563247</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>79</v>
@@ -4457,7 +4436,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>10</v>
@@ -4469,13 +4448,13 @@
         <v>601752</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H59" s="7">
         <v>1460</v>
@@ -4484,13 +4463,13 @@
         <v>880686</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M59" s="7">
         <v>2354</v>
@@ -4499,13 +4478,13 @@
         <v>1482437</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4499,13 @@
         <v>8573</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>305</v>
+        <v>117</v>
       </c>
       <c r="H60" s="7">
         <v>37</v>
@@ -4535,13 +4514,13 @@
         <v>22186</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="M60" s="7">
         <v>50</v>
@@ -4550,13 +4529,13 @@
         <v>30759</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>310</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4556,7 @@
         <v>30</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4592,7 +4571,7 @@
         <v>30</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -4607,7 +4586,7 @@
         <v>30</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,7 +4607,7 @@
         <v>30</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4643,7 +4622,7 @@
         <v>30</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4658,7 +4637,7 @@
         <v>30</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4652,13 @@
         <v>56825</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H63" s="7">
         <v>111</v>
@@ -4688,13 +4667,13 @@
         <v>68902</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>316</v>
+        <v>43</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M63" s="7">
         <v>189</v>
@@ -4703,13 +4682,13 @@
         <v>125728</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4703,13 @@
         <v>5819</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H64" s="7">
         <v>12</v>
@@ -4739,13 +4718,13 @@
         <v>7676</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>322</v>
+        <v>126</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="M64" s="7">
         <v>20</v>
@@ -4754,13 +4733,13 @@
         <v>13495</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>324</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4760,7 @@
         <v>30</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -4790,13 +4769,13 @@
         <v>648</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -4805,13 +4784,13 @@
         <v>648</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4811,7 @@
         <v>22</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4847,7 +4826,7 @@
         <v>30</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -4856,7 +4835,7 @@
         <v>742</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>22</v>
@@ -4877,13 +4856,13 @@
         <v>1718</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>326</v>
+        <v>94</v>
       </c>
       <c r="H67" s="7">
         <v>6</v>
@@ -4892,13 +4871,13 @@
         <v>3088</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="M67" s="7">
         <v>8</v>
@@ -4910,10 +4889,10 @@
         <v>63</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4907,13 @@
         <v>1435</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -4943,13 +4922,13 @@
         <v>644</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="M68" s="7">
         <v>3</v>
@@ -4961,10 +4940,10 @@
         <v>282</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>328</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,28 +5011,28 @@
         <v>2834821</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>331</v>
+        <v>144</v>
       </c>
       <c r="H70" s="7">
         <v>4523</v>
       </c>
       <c r="I70" s="7">
-        <v>3174608</v>
+        <v>3174609</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="M70" s="7">
         <v>7370</v>
@@ -5062,13 +5041,13 @@
         <v>6009429</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5062,13 @@
         <v>75149</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>166</v>
+        <v>325</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H71" s="7">
         <v>101</v>
@@ -5098,13 +5077,13 @@
         <v>71083</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M71" s="7">
         <v>163</v>
@@ -5113,13 +5092,13 @@
         <v>146231</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>339</v>
+        <v>25</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,7 +5119,7 @@
         <v>30</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -5155,7 +5134,7 @@
         <v>22</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -5164,13 +5143,13 @@
         <v>785</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5164,13 @@
         <v>7171</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>179</v>
+        <v>334</v>
       </c>
       <c r="H73" s="7">
         <v>10</v>
@@ -5200,10 +5179,10 @@
         <v>7864</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>24</v>
@@ -5215,13 +5194,13 @@
         <v>15035</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5215,13 @@
         <v>193796</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="H74" s="7">
         <v>307</v>
@@ -5251,13 +5230,13 @@
         <v>241859</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M74" s="7">
         <v>504</v>
@@ -5266,13 +5245,13 @@
         <v>435655</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5266,13 @@
         <v>29835</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>353</v>
+        <v>56</v>
       </c>
       <c r="H75" s="7">
         <v>34</v>
@@ -5302,10 +5281,10 @@
         <v>25792</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>114</v>
@@ -5317,13 +5296,13 @@
         <v>55628</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5317,13 @@
         <v>5567</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H76" s="7">
         <v>10</v>
@@ -5353,13 +5332,13 @@
         <v>9122</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>355</v>
+        <v>164</v>
       </c>
       <c r="M76" s="7">
         <v>14</v>
@@ -5368,13 +5347,13 @@
         <v>14688</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5368,13 @@
         <v>8553</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H77" s="7">
         <v>9</v>
@@ -5404,13 +5383,13 @@
         <v>8135</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M77" s="7">
         <v>13</v>
@@ -5422,10 +5401,10 @@
         <v>76</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5419,13 @@
         <v>44773</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>283</v>
+        <v>102</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>21</v>
+        <v>347</v>
       </c>
       <c r="H78" s="7">
         <v>55</v>
@@ -5455,13 +5434,13 @@
         <v>44754</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>197</v>
+        <v>348</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="M78" s="7">
         <v>97</v>
@@ -5470,13 +5449,13 @@
         <v>89527</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>357</v>
+        <v>180</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>114</v>
+        <v>350</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5470,13 @@
         <v>30377</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="H79" s="7">
         <v>30</v>
@@ -5509,10 +5488,10 @@
         <v>48</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="M79" s="7">
         <v>57</v>
@@ -5521,13 +5500,13 @@
         <v>54581</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,7 +5533,7 @@
         <v>5080</v>
       </c>
       <c r="I80" s="7">
-        <v>3608207</v>
+        <v>3608208</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>79</v>
@@ -5583,7 +5562,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A767DC3-89B2-4BCF-AB85-08F0D84023A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA2CBD25-FCC2-4AB6-9CF3-2262F56DBB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D1E1AF9-A0BF-46DC-9369-E1E8352A85AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9EEF6992-89E2-4028-8315-BEEA60B9E058}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1509,7 +1509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB03F50-B8AB-4015-B716-A4D012B3B9EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC76C4DB-DE7F-476C-BFE7-9AF3D64E6244}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
